--- a/20241210 CTO and EA weights.xlsx
+++ b/20241210 CTO and EA weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Documents/Postdoc/P-vent_CTO_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8439C5D-445E-4E47-8889-7A368FA294AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A921DD-AB13-D04D-B0AD-93F2EB7CCB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-21100" windowWidth="25600" windowHeight="28300" xr2:uid="{FF8B8E08-3E9E-5742-B2F2-6FEFC365AE8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Sample</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Primary File</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +593,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
